--- a/excel/ProvinceLevel.xlsx
+++ b/excel/ProvinceLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$R$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$2:$F$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
     <author>zhao3</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>省份ID</t>
+  </si>
   <si>
     <t>省份排序</t>
   </si>
@@ -108,6 +114,12 @@
     <t>关卡配置</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
     <t>provinceSort</t>
   </si>
   <si>
@@ -117,28 +129,22 @@
     <t>level</t>
   </si>
   <si>
-    <t>30021,1;30022,1;30023,1;30024,1;30025,1;30005,1</t>
-  </si>
-  <si>
-    <t>126,1;30026,1;30027,1;696,2;211,1;30028,1;30008,1;30009,1;30010,1</t>
-  </si>
-  <si>
-    <t>109,2;303,1;765,1;265,2;778,1;150,1;30011,1;30029,1;20001,2</t>
-  </si>
-  <si>
-    <t>80,1;518,1;806,1;83,1;1050,2;88,1;520,1;809,1;10025,3</t>
-  </si>
-  <si>
-    <t>91,2;523,4;815,3;171,2;526,3;715,4;30030,2;529,4;781,4;100,3;532,3;10047,4</t>
-  </si>
-  <si>
-    <t>103,2;535,4;821,5;106,3;538,4;10051,5;109,3;541,4;824,5;112,4;544,5;10055,5</t>
-  </si>
-  <si>
-    <t>115,3;547,4;826,4;118,3;550,4;10069,5;121,3;553,4;838,5;124,3;556,4;10083,6</t>
-  </si>
-  <si>
-    <t>127,2;559,3;849,5;130,2;562,4;10095,5;133,2;565,4;880,5;136,3;568,4;10091,5</t>
+    <t>20085,1;20086,1;20063,1;20065,1;1053,1;20066,1</t>
+  </si>
+  <si>
+    <t>1106,1;20069,1;20070,1;2139,2;1060,1;20071,1</t>
+  </si>
+  <si>
+    <t>20050,1;1080,1;1106,1;2033,2;1108,1;3047,1</t>
+  </si>
+  <si>
+    <t>1059,2;1078,1;2055,1;1076,1;3205,1;2142,2;1019,1;2106,1;3019,1</t>
+  </si>
+  <si>
+    <t>1089,1;2007,2;1003,1;3051,1;2029,1;3018,3;20005,2;20036,4;20041,3</t>
+  </si>
+  <si>
+    <t>20076,2;20079,4;20082,5;20076,3;20079,4;20082,5;20076,3;20079,4;20082,5</t>
   </si>
   <si>
     <t>139,2;571,3;888,4;142,2;574,3;10093,4;145,2;577,4;901,5;148,3;580,4;10104,6</t>
@@ -165,16 +171,7 @@
     <t>151,3;583,5;910,6;154,3;586,5;10123,6;157,3;589,5;917,6;160,4;592,5;10131,6</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>省份ID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>provinceId</t>
+    <t>90001,3;90002,5;90003,6;90001,3;90002,5;90003,6;90001,3;90002,5;90003,6;90001,4;90002,5;90003,6</t>
   </si>
   <si>
     <t>亚拉巴马州</t>
@@ -370,7 +367,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +399,14 @@
       <color rgb="FF222222"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -879,137 +884,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1041,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1437,23 +1445,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="A$1:B$1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.25" style="5" customWidth="1"/>
-    <col min="4" max="10" width="6.6" style="5" customWidth="1"/>
-    <col min="11" max="12" width="7.71666666666667" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.99166666666667" style="5"/>
+    <col min="1" max="1" width="8.99166666666667" style="5"/>
+    <col min="2" max="2" width="16.5666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.3333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.25" style="5" customWidth="1"/>
+    <col min="6" max="12" width="6.6" style="5" customWidth="1"/>
+    <col min="13" max="14" width="7.71666666666667" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.99166666666667" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:3">
+    <row r="1" s="5" customFormat="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1463,588 +1473,906 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:3">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:5">
+      <c r="A3" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="5">
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:5">
+      <c r="A5" s="5">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:3">
-      <c r="A5" s="5">
-        <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:5">
+      <c r="A7" s="5">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:5">
+      <c r="A8" s="5">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:5">
+      <c r="A9" s="5">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:5">
+      <c r="A10" s="5">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:3">
-      <c r="A6" s="5">
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:5">
+      <c r="A12" s="5">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="1:18">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="1:5">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:5">
+      <c r="A15" s="5">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="1:5">
+      <c r="A16" s="5">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:5">
+      <c r="A17" s="5">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:5">
+      <c r="A18" s="5">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:5">
+      <c r="A19" s="5">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="1:5">
+      <c r="A20" s="5">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:5">
+      <c r="A21" s="5">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:5">
+      <c r="A22" s="5">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="1:5">
+      <c r="A23" s="5">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="1" spans="1:5">
+      <c r="A24" s="5">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="1:5">
+      <c r="A25" s="5">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" spans="1:5">
+      <c r="A26" s="5">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" spans="1:5">
+      <c r="A27" s="5">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="1:5">
+      <c r="A28" s="5">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="1:5">
+      <c r="A29" s="5">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="1:5">
+      <c r="A30" s="5">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>28</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="1" spans="1:5">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5">
+        <v>29</v>
+      </c>
+      <c r="D31" s="5">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="1" spans="1:5">
+      <c r="A32" s="5">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" s="5" customFormat="1" spans="1:5">
+      <c r="A33" s="5">
+        <v>36</v>
+      </c>
+      <c r="B33" s="5">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="1:5">
+      <c r="A34" s="5">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="1" spans="1:5">
+      <c r="A35" s="5">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5">
+        <v>25</v>
+      </c>
+      <c r="C35" s="5">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:5">
+      <c r="A36" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="1:3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B36" s="5">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5">
+        <v>35</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
+        <v>14</v>
+      </c>
+      <c r="B38" s="5">
+        <v>14</v>
+      </c>
+      <c r="C38" s="5">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5">
+        <v>17</v>
+      </c>
+      <c r="B39" s="5">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5">
+        <v>37</v>
+      </c>
+      <c r="D39" s="5">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
+        <v>42</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5">
+        <v>48</v>
+      </c>
+      <c r="C41" s="5">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:18">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>40</v>
+      </c>
+      <c r="D42" s="5">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5">
+        <v>21</v>
+      </c>
+      <c r="C43" s="5">
+        <v>41</v>
+      </c>
+      <c r="D43" s="5">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5">
+        <v>42</v>
+      </c>
+      <c r="D44" s="5">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5">
+        <v>30</v>
+      </c>
+      <c r="B45" s="5">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5">
+        <v>43</v>
+      </c>
+      <c r="D45" s="5">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
+        <v>20</v>
+      </c>
+      <c r="B46" s="5">
+        <v>20</v>
+      </c>
+      <c r="C46" s="5">
+        <v>44</v>
+      </c>
+      <c r="D46" s="5">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" spans="1:3">
-      <c r="A10" s="5">
+      <c r="B47" s="5">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45</v>
+      </c>
+      <c r="D47" s="5">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
+        <v>24</v>
+      </c>
+      <c r="B48" s="5">
+        <v>24</v>
+      </c>
+      <c r="C48" s="5">
+        <v>46</v>
+      </c>
+      <c r="D48" s="5">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5">
+        <v>29</v>
+      </c>
+      <c r="B49" s="5">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5">
+        <v>47</v>
+      </c>
+      <c r="D49" s="5">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5">
+        <v>48</v>
+      </c>
+      <c r="D50" s="5">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5">
+        <v>49</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:3">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:3">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="1:16">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="1:3">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="1:3">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="1:3">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="1:3">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:3">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="1:3">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B52" s="5">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>50</v>
+      </c>
+      <c r="D52" s="5">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:3">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="1:3">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:3">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:3">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="1:3">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:3">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="1:3">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" spans="1:3">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="1:3">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" s="5" customFormat="1" spans="1:3">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" s="5" customFormat="1" spans="1:3">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" s="5" customFormat="1" spans="1:3">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" spans="1:3">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" spans="1:3">
-      <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="1:3">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:3">
-      <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="1:3">
-      <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="1:16">
-      <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5">
-        <v>48</v>
-      </c>
-      <c r="B50" s="5">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:5">
       <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="5">
+        <v>51</v>
+      </c>
+      <c r="D53" s="5">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:P53" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:P53">
-      <sortCondition ref="A2"/>
+  <autoFilter ref="A2:R53">
+    <sortState ref="A2:R53">
+      <sortCondition ref="C2"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -2077,37 +2405,37 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:6">
@@ -2118,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5">
         <v>12</v>
@@ -2127,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:6">
@@ -2138,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5">
         <v>40</v>
@@ -2147,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:6">
@@ -2158,7 +2486,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -2167,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:6">
@@ -2178,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5">
         <v>34</v>
@@ -2187,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:6">
@@ -2198,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2207,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:6">
@@ -2218,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5">
         <v>28</v>
@@ -2227,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:6">
@@ -2238,7 +2566,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5">
         <v>42</v>
@@ -2247,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:6">
@@ -2258,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
@@ -2267,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:6">
@@ -2278,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -2287,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:6">
@@ -2298,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5">
         <v>9</v>
@@ -2307,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:6">
@@ -2318,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5">
         <v>45</v>
@@ -2327,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:6">
@@ -2338,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5">
         <v>22</v>
@@ -2347,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
@@ -2358,7 +2686,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5">
         <v>35</v>
@@ -2367,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
@@ -2378,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5">
         <v>36</v>
@@ -2387,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:6">
@@ -2398,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
@@ -2407,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:6">
@@ -2418,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5">
         <v>30</v>
@@ -2427,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:6">
@@ -2438,7 +2766,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5">
         <v>37</v>
@@ -2447,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:6">
@@ -2458,7 +2786,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5">
         <v>15</v>
@@ -2467,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:6">
@@ -2478,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5">
         <v>23</v>
@@ -2487,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
@@ -2498,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5">
         <v>44</v>
@@ -2507,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
@@ -2518,7 +2846,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5">
         <v>41</v>
@@ -2527,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:6">
@@ -2538,7 +2866,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
@@ -2547,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:6">
@@ -2558,7 +2886,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5">
         <v>19</v>
@@ -2567,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:6">
@@ -2578,7 +2906,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5">
         <v>46</v>
@@ -2587,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:6">
@@ -2598,7 +2926,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5">
         <v>33</v>
@@ -2607,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:6">
@@ -2618,7 +2946,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
@@ -2627,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
@@ -2638,7 +2966,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5">
         <v>29</v>
@@ -2647,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:6">
@@ -2658,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="5">
         <v>24</v>
@@ -2667,7 +2995,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
@@ -2678,7 +3006,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5">
         <v>47</v>
@@ -2687,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:6">
@@ -2698,7 +3026,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="5">
         <v>43</v>
@@ -2707,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:6">
@@ -2718,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
@@ -2727,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:6">
@@ -2738,7 +3066,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -2747,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:6">
@@ -2758,7 +3086,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="5">
         <v>16</v>
@@ -2767,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:6">
@@ -2778,7 +3106,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="5">
         <v>17</v>
@@ -2787,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:6">
@@ -2798,7 +3126,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="5">
         <v>21</v>
@@ -2807,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:6">
@@ -2818,7 +3146,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="5">
         <v>31</v>
@@ -2827,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:6">
@@ -2838,7 +3166,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="5">
         <v>7</v>
@@ -2847,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:6">
@@ -2858,7 +3186,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="5">
         <v>6</v>
@@ -2867,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:6">
@@ -2878,7 +3206,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="5">
         <v>49</v>
@@ -2887,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:6">
@@ -2898,7 +3226,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="5">
         <v>18</v>
@@ -2907,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:6">
@@ -2918,7 +3246,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="5">
         <v>27</v>
@@ -2927,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:6">
@@ -2938,7 +3266,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="5">
         <v>38</v>
@@ -2947,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:6">
@@ -2958,7 +3286,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
@@ -2967,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:6">
@@ -2978,7 +3306,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="5">
         <v>26</v>
@@ -2987,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:6">
@@ -2998,7 +3326,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="5">
         <v>48</v>
@@ -3007,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:6">
@@ -3018,7 +3346,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="5">
         <v>13</v>
@@ -3027,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="1:6">
@@ -3038,7 +3366,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="5">
         <v>14</v>
@@ -3047,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:6">
@@ -3058,7 +3386,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="5">
         <v>39</v>
@@ -3067,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="1:6">
@@ -3078,7 +3406,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="5">
         <v>20</v>
@@ -3087,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="1:6">
@@ -3098,7 +3426,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="5">
         <v>25</v>
@@ -3107,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:6">
@@ -3118,7 +3446,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="5">
         <v>51</v>
@@ -3127,11 +3455,11 @@
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:F53" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A2:F53">
     <sortState ref="A2:F53">
       <sortCondition ref="A2"/>
     </sortState>

--- a/excel/ProvinceLevel.xlsx
+++ b/excel/ProvinceLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24540" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -144,13 +144,37 @@
     <t>1089,1;2007,2;1003,1;3051,1;2029,1;3018,3;20005,2;20036,4;20041,3</t>
   </si>
   <si>
+    <t>1001,2;2028,3;3004,4;20075,2;35001,1;35002,1;1108,3;3005,3;5851,4</t>
+  </si>
+  <si>
+    <t>35005,2;2029,4;3202,5;2050,3;3206,4;35008,5;3051,3;20004,4;35042,5</t>
+  </si>
+  <si>
+    <t>20050,4;20058,5;1087,5;20020,3;30001,4;30002,4;20037,3;30010,4;35077,5</t>
+  </si>
+  <si>
+    <t>20039,3;2037,4;30023,5;30028,3;35048,4;2016,6;30027,2;2094,3;30077,5</t>
+  </si>
+  <si>
+    <t>1091,2;2082,4;3020,5;35062,2;2013,4;3040,5;2075,3;35048,4;35080,5</t>
+  </si>
+  <si>
+    <t>20039,2;3008,3;30007,4;30020,2;35028,3;20040,4;30023,2;3014,4;35114,5</t>
+  </si>
+  <si>
+    <t>30006,3;30013,4;5055,6;35006,2;35049,3;1008,4;1104,5;2135,3;3029,5</t>
+  </si>
+  <si>
+    <t>2028,3;3069,4;2124,5;35010,3;30056,4;30028,5;3106,3;2013,5;35089,6</t>
+  </si>
+  <si>
+    <t>1038,3;30031,5;35033,6;30023,3;3202,5;3207,6;20004,4;35047,5;35115,6</t>
+  </si>
+  <si>
+    <t>20038,3;2020,5;30036,6;30056,3;30083,5;1045,6;3046,3;2034,5;5528,6</t>
+  </si>
+  <si>
     <t>20076,2;20079,4;20082,5;20076,3;20079,4;20082,5;20076,3;20079,4;20082,5</t>
-  </si>
-  <si>
-    <t>139,2;571,3;888,4;142,2;574,3;10093,4;145,2;577,4;901,5;148,3;580,4;10104,6</t>
-  </si>
-  <si>
-    <t>151,2;583,3;910,4;154,5;586,3;10123,5;157,3;589,4;917,5;160,3;592,4;10131,5</t>
   </si>
   <si>
     <t>91,3;523,5;815,6;171,3;526,5;715,6;30030,3;529,5;781,6;100,4;532,5;10047,6</t>
@@ -553,12 +577,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1448,7 +1472,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="16.5"/>
@@ -1499,7 +1523,7 @@
     </row>
     <row r="3" s="5" customFormat="1" spans="1:5">
       <c r="A3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -1516,7 +1540,7 @@
     </row>
     <row r="4" s="5" customFormat="1" spans="1:5">
       <c r="A4" s="5">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>43</v>
@@ -1533,7 +1557,7 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:5">
       <c r="A5" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
@@ -1550,7 +1574,7 @@
     </row>
     <row r="6" s="5" customFormat="1" spans="1:5">
       <c r="A6" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>32</v>
@@ -1567,7 +1591,7 @@
     </row>
     <row r="7" s="5" customFormat="1" spans="1:5">
       <c r="A7" s="5">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>26</v>
@@ -1584,7 +1608,7 @@
     </row>
     <row r="8" s="5" customFormat="1" spans="1:5">
       <c r="A8" s="5">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>38</v>
@@ -1595,13 +1619,13 @@
       <c r="D8" s="5">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:5">
       <c r="A9" s="5">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>37</v>
@@ -1612,13 +1636,13 @@
       <c r="D9" s="5">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:5">
       <c r="A10" s="5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>31</v>
@@ -1629,13 +1653,13 @@
       <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>15</v>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:5">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
@@ -1644,15 +1668,15 @@
         <v>9</v>
       </c>
       <c r="D11" s="5">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:5">
       <c r="A12" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>22</v>
@@ -1661,15 +1685,15 @@
         <v>10</v>
       </c>
       <c r="D12" s="5">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:18">
       <c r="A13" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
@@ -1678,16 +1702,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="5">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="R13" s="1"/>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:5">
       <c r="A14" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -1696,15 +1720,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="5">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:5">
       <c r="A15" s="5">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>46</v>
@@ -1713,15 +1737,15 @@
         <v>13</v>
       </c>
       <c r="D15" s="5">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:5">
       <c r="A16" s="5">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>47</v>
@@ -1730,15 +1754,15 @@
         <v>14</v>
       </c>
       <c r="D16" s="5">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:5">
       <c r="A17" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>18</v>
@@ -1747,15 +1771,15 @@
         <v>15</v>
       </c>
       <c r="D17" s="5">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:5">
       <c r="A18" s="5">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>33</v>
@@ -1764,15 +1788,15 @@
         <v>16</v>
       </c>
       <c r="D18" s="5">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:5">
       <c r="A19" s="5">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>34</v>
@@ -1781,15 +1805,15 @@
         <v>17</v>
       </c>
       <c r="D19" s="5">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:5">
       <c r="A20" s="5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>40</v>
@@ -1798,15 +1822,15 @@
         <v>18</v>
       </c>
       <c r="D20" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
       <c r="A21" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5">
         <v>23</v>
@@ -1815,15 +1839,15 @@
         <v>19</v>
       </c>
       <c r="D21" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:5">
       <c r="A22" s="5">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5">
         <v>49</v>
@@ -1832,15 +1856,15 @@
         <v>20</v>
       </c>
       <c r="D22" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:5">
       <c r="A23" s="5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>35</v>
@@ -1849,15 +1873,15 @@
         <v>21</v>
       </c>
       <c r="D23" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" s="5">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>12</v>
@@ -1866,15 +1890,15 @@
         <v>22</v>
       </c>
       <c r="D24" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5">
         <v>19</v>
@@ -1883,15 +1907,15 @@
         <v>23</v>
       </c>
       <c r="D25" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5">
         <v>28</v>
@@ -1900,15 +1924,15 @@
         <v>24</v>
       </c>
       <c r="D26" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>50</v>
@@ -1917,15 +1941,15 @@
         <v>25</v>
       </c>
       <c r="D27" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" s="5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
         <v>44</v>
@@ -1934,15 +1958,15 @@
         <v>26</v>
       </c>
       <c r="D28" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" s="5">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>41</v>
@@ -1951,15 +1975,15 @@
         <v>27</v>
       </c>
       <c r="D29" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" s="5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>6</v>
@@ -1968,15 +1992,15 @@
         <v>28</v>
       </c>
       <c r="D30" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>27</v>
@@ -1985,15 +2009,15 @@
         <v>29</v>
       </c>
       <c r="D31" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" s="5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>16</v>
@@ -2002,15 +2026,15 @@
         <v>30</v>
       </c>
       <c r="D32" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" s="5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5">
         <v>36</v>
@@ -2019,15 +2043,15 @@
         <v>31</v>
       </c>
       <c r="D33" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:5">
       <c r="A34" s="5">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5">
         <v>15</v>
@@ -2036,15 +2060,15 @@
         <v>32</v>
       </c>
       <c r="D34" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:5">
       <c r="A35" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>25</v>
@@ -2053,15 +2077,15 @@
         <v>33</v>
       </c>
       <c r="D35" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:5">
       <c r="A36" s="5">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5">
         <v>4</v>
@@ -2070,15 +2094,15 @@
         <v>34</v>
       </c>
       <c r="D36" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5">
         <v>13</v>
@@ -2087,15 +2111,15 @@
         <v>35</v>
       </c>
       <c r="D37" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5">
         <v>14</v>
@@ -2104,15 +2128,15 @@
         <v>36</v>
       </c>
       <c r="D38" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5">
         <v>17</v>
@@ -2121,15 +2145,15 @@
         <v>37</v>
       </c>
       <c r="D39" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5">
         <v>42</v>
@@ -2138,15 +2162,15 @@
         <v>38</v>
       </c>
       <c r="D40" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5">
         <v>48</v>
@@ -2155,15 +2179,15 @@
         <v>39</v>
       </c>
       <c r="D41" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:18">
       <c r="A42" s="5">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5">
         <v>2</v>
@@ -2172,16 +2196,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5">
         <v>21</v>
@@ -2190,15 +2214,15 @@
         <v>41</v>
       </c>
       <c r="D43" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -2207,15 +2231,15 @@
         <v>42</v>
       </c>
       <c r="D44" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5">
         <v>30</v>
@@ -2224,15 +2248,15 @@
         <v>43</v>
       </c>
       <c r="D45" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>20</v>
@@ -2241,15 +2265,15 @@
         <v>44</v>
       </c>
       <c r="D46" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5">
         <v>11</v>
@@ -2258,15 +2282,15 @@
         <v>45</v>
       </c>
       <c r="D47" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5">
         <v>24</v>
@@ -2275,15 +2299,15 @@
         <v>46</v>
       </c>
       <c r="D48" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5">
         <v>29</v>
@@ -2292,15 +2316,15 @@
         <v>47</v>
       </c>
       <c r="D49" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5">
         <v>45</v>
@@ -2309,15 +2333,15 @@
         <v>48</v>
       </c>
       <c r="D50" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5">
         <v>39</v>
@@ -2326,15 +2350,15 @@
         <v>49</v>
       </c>
       <c r="D51" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5">
         <v>8</v>
@@ -2343,10 +2367,10 @@
         <v>50</v>
       </c>
       <c r="D52" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2360,17 +2384,17 @@
         <v>51</v>
       </c>
       <c r="D53" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R53">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:R53" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A2:R53">
       <sortCondition ref="C2"/>
     </sortState>
@@ -2446,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5">
         <v>12</v>
@@ -2455,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:6">
@@ -2466,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5">
         <v>40</v>
@@ -2475,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:6">
@@ -2486,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -2495,7 +2519,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:6">
@@ -2506,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5">
         <v>34</v>
@@ -2515,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:6">
@@ -2526,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2535,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:6">
@@ -2546,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5">
         <v>28</v>
@@ -2555,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:6">
@@ -2566,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5">
         <v>42</v>
@@ -2575,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:6">
@@ -2586,7 +2610,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
@@ -2595,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:6">
@@ -2606,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -2615,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:6">
@@ -2626,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5">
         <v>9</v>
@@ -2635,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:6">
@@ -2646,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5">
         <v>45</v>
@@ -2655,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:6">
@@ -2666,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5">
         <v>22</v>
@@ -2675,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
@@ -2686,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5">
         <v>35</v>
@@ -2695,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
@@ -2706,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5">
         <v>36</v>
@@ -2715,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:6">
@@ -2726,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
@@ -2735,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:6">
@@ -2746,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5">
         <v>30</v>
@@ -2755,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:6">
@@ -2766,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5">
         <v>37</v>
@@ -2775,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:6">
@@ -2786,7 +2810,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5">
         <v>15</v>
@@ -2795,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:6">
@@ -2806,7 +2830,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5">
         <v>23</v>
@@ -2815,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
@@ -2826,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5">
         <v>44</v>
@@ -2835,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
@@ -2846,7 +2870,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5">
         <v>41</v>
@@ -2855,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:6">
@@ -2866,7 +2890,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
@@ -2875,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:6">
@@ -2886,7 +2910,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5">
         <v>19</v>
@@ -2895,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:6">
@@ -2906,7 +2930,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5">
         <v>46</v>
@@ -2915,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:6">
@@ -2926,7 +2950,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D27" s="5">
         <v>33</v>
@@ -2935,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:6">
@@ -2946,7 +2970,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
@@ -2955,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
@@ -2966,7 +2990,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D29" s="5">
         <v>29</v>
@@ -2975,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:6">
@@ -2986,7 +3010,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D30" s="5">
         <v>24</v>
@@ -2995,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
@@ -3006,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D31" s="5">
         <v>47</v>
@@ -3015,7 +3039,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:6">
@@ -3026,7 +3050,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D32" s="5">
         <v>43</v>
@@ -3035,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:6">
@@ -3046,7 +3070,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
@@ -3055,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:6">
@@ -3066,7 +3090,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -3075,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:6">
@@ -3086,7 +3110,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5">
         <v>16</v>
@@ -3095,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:6">
@@ -3106,7 +3130,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D36" s="5">
         <v>17</v>
@@ -3115,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:6">
@@ -3126,7 +3150,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D37" s="5">
         <v>21</v>
@@ -3135,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:6">
@@ -3146,7 +3170,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D38" s="5">
         <v>31</v>
@@ -3155,7 +3179,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:6">
@@ -3166,7 +3190,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D39" s="5">
         <v>7</v>
@@ -3175,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:6">
@@ -3186,7 +3210,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D40" s="5">
         <v>6</v>
@@ -3195,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:6">
@@ -3206,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D41" s="5">
         <v>49</v>
@@ -3215,7 +3239,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:6">
@@ -3226,7 +3250,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D42" s="5">
         <v>18</v>
@@ -3235,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:6">
@@ -3246,7 +3270,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D43" s="5">
         <v>27</v>
@@ -3255,7 +3279,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:6">
@@ -3266,7 +3290,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D44" s="5">
         <v>38</v>
@@ -3275,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:6">
@@ -3286,7 +3310,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
@@ -3295,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:6">
@@ -3306,7 +3330,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D46" s="5">
         <v>26</v>
@@ -3315,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:6">
@@ -3326,7 +3350,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5">
         <v>48</v>
@@ -3335,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:6">
@@ -3346,7 +3370,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D48" s="5">
         <v>13</v>
@@ -3355,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="1:6">
@@ -3366,7 +3390,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D49" s="5">
         <v>14</v>
@@ -3375,7 +3399,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:6">
@@ -3386,7 +3410,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D50" s="5">
         <v>39</v>
@@ -3395,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="1:6">
@@ -3406,7 +3430,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D51" s="5">
         <v>20</v>
@@ -3415,7 +3439,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="1:6">
@@ -3426,7 +3450,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D52" s="5">
         <v>25</v>
@@ -3435,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:6">
@@ -3446,7 +3470,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D53" s="5">
         <v>51</v>
@@ -3455,11 +3479,11 @@
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F53">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:F53" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A2:F53">
       <sortCondition ref="A2"/>
     </sortState>

--- a/excel/ProvinceLevel.xlsx
+++ b/excel/ProvinceLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24540" windowHeight="5025"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -135,7 +135,7 @@
     <t>1106,1;20069,1;20070,1;2139,2;1060,1;20071,1</t>
   </si>
   <si>
-    <t>20050,1;1080,1;1106,1;2033,2;1108,1;3047,1</t>
+    <t>20050,1;1080,1;1107,1;2033,2;1108,1;3047,1</t>
   </si>
   <si>
     <t>1059,2;1078,1;2055,1;1076,1;3205,1;2142,2;1019,1;2106,1;3019,1</t>
@@ -174,28 +174,13 @@
     <t>20038,3;2020,5;30036,6;30056,3;30083,5;1045,6;3046,3;2034,5;5528,6</t>
   </si>
   <si>
-    <t>20076,2;20079,4;20082,5;20076,3;20079,4;20082,5;20076,3;20079,4;20082,5</t>
-  </si>
-  <si>
-    <t>91,3;523,5;815,6;171,3;526,5;715,6;30030,3;529,5;781,6;100,4;532,5;10047,6</t>
-  </si>
-  <si>
-    <t>103,3;535,5;821,6;106,3;538,5;10051,6;109,3;541,5;824,6;112,4;544,5;10055,6</t>
-  </si>
-  <si>
-    <t>115,3;547,5;826,6;118,3;550,5;10069,6;121,3;553,5;838,6;124,4;556,5;10083,6</t>
-  </si>
-  <si>
-    <t>127,3;559,5;849,6;130,3;562,5;10095,6;133,3;565,5;880,6;136,4;568,5;10091,6</t>
-  </si>
-  <si>
-    <t>139,3;571,5;888,6;142,3;574,5;10093,6;145,3;577,5;901,6;148,4;580,5;10104,6</t>
-  </si>
-  <si>
-    <t>151,3;583,5;910,6;154,3;586,5;10123,6;157,3;589,5;917,6;160,4;592,5;10131,6</t>
-  </si>
-  <si>
-    <t>90001,3;90002,5;90003,6;90001,3;90002,5;90003,6;90001,3;90002,5;90003,6;90001,4;90002,5;90003,6</t>
+    <t>1079,4;2023,5;3089,6;3037,3;3263,5;20073,6;3008,3;20040,5;30114,6</t>
+  </si>
+  <si>
+    <t>30026,3;2053,5;3069,6;20060,4;30030,5;30044,6;3105,3;2020,5;5783,6</t>
+  </si>
+  <si>
+    <t>1087,3;3047,5;2088,6;35112,3;35005,5;3029,6;3203,4;20051,5;5631,6</t>
   </si>
   <si>
     <t>亚拉巴马州</t>
@@ -577,23 +562,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -914,7 +905,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,16 +929,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -956,89 +947,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1056,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1472,7 +1469,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A3" sqref="A3:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="16.5"/>
@@ -1808,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:5">
@@ -1824,8 +1821,8 @@
       <c r="D20" s="5">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
-        <v>26</v>
+      <c r="E20" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
@@ -1841,8 +1838,8 @@
       <c r="D21" s="5">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
-        <v>27</v>
+      <c r="E21" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:5">
@@ -1858,8 +1855,8 @@
       <c r="D22" s="5">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
-        <v>27</v>
+      <c r="E22" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:5">
@@ -1875,8 +1872,8 @@
       <c r="D23" s="5">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
-        <v>28</v>
+      <c r="E23" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
@@ -1892,8 +1889,8 @@
       <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
-        <v>29</v>
+      <c r="E24" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
@@ -1909,8 +1906,8 @@
       <c r="D25" s="5">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
-        <v>30</v>
+      <c r="E25" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
@@ -1926,8 +1923,8 @@
       <c r="D26" s="5">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
-        <v>31</v>
+      <c r="E26" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
@@ -1943,8 +1940,8 @@
       <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
-        <v>26</v>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
@@ -1960,8 +1957,8 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
-        <v>27</v>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
@@ -1977,8 +1974,8 @@
       <c r="D29" s="5">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
-        <v>27</v>
+      <c r="E29" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
@@ -1994,8 +1991,8 @@
       <c r="D30" s="5">
         <v>9</v>
       </c>
-      <c r="E30" t="s">
-        <v>28</v>
+      <c r="E30" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
@@ -2011,8 +2008,8 @@
       <c r="D31" s="5">
         <v>9</v>
       </c>
-      <c r="E31" t="s">
-        <v>29</v>
+      <c r="E31" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
@@ -2028,8 +2025,8 @@
       <c r="D32" s="5">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
-        <v>30</v>
+      <c r="E32" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
@@ -2045,8 +2042,8 @@
       <c r="D33" s="5">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
-        <v>31</v>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:5">
@@ -2062,8 +2059,8 @@
       <c r="D34" s="5">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
-        <v>26</v>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:5">
@@ -2079,8 +2076,8 @@
       <c r="D35" s="5">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
-        <v>27</v>
+      <c r="E35" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:5">
@@ -2096,8 +2093,8 @@
       <c r="D36" s="5">
         <v>9</v>
       </c>
-      <c r="E36" t="s">
-        <v>27</v>
+      <c r="E36" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2113,8 +2110,8 @@
       <c r="D37" s="5">
         <v>9</v>
       </c>
-      <c r="E37" t="s">
-        <v>28</v>
+      <c r="E37" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2130,8 +2127,8 @@
       <c r="D38" s="5">
         <v>9</v>
       </c>
-      <c r="E38" t="s">
-        <v>29</v>
+      <c r="E38" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2147,8 +2144,8 @@
       <c r="D39" s="5">
         <v>9</v>
       </c>
-      <c r="E39" t="s">
-        <v>30</v>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2164,8 +2161,8 @@
       <c r="D40" s="5">
         <v>9</v>
       </c>
-      <c r="E40" t="s">
-        <v>31</v>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2181,8 +2178,8 @@
       <c r="D41" s="5">
         <v>9</v>
       </c>
-      <c r="E41" t="s">
-        <v>26</v>
+      <c r="E41" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:18">
@@ -2198,8 +2195,8 @@
       <c r="D42" s="5">
         <v>9</v>
       </c>
-      <c r="E42" t="s">
-        <v>27</v>
+      <c r="E42" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="R42" s="2"/>
     </row>
@@ -2216,8 +2213,8 @@
       <c r="D43" s="5">
         <v>9</v>
       </c>
-      <c r="E43" t="s">
-        <v>27</v>
+      <c r="E43" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2233,8 +2230,8 @@
       <c r="D44" s="5">
         <v>9</v>
       </c>
-      <c r="E44" t="s">
-        <v>28</v>
+      <c r="E44" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2250,8 +2247,8 @@
       <c r="D45" s="5">
         <v>9</v>
       </c>
-      <c r="E45" t="s">
-        <v>29</v>
+      <c r="E45" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2267,8 +2264,8 @@
       <c r="D46" s="5">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
-        <v>30</v>
+      <c r="E46" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2284,8 +2281,8 @@
       <c r="D47" s="5">
         <v>9</v>
       </c>
-      <c r="E47" t="s">
-        <v>31</v>
+      <c r="E47" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2301,8 +2298,8 @@
       <c r="D48" s="5">
         <v>9</v>
       </c>
-      <c r="E48" t="s">
-        <v>26</v>
+      <c r="E48" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2318,8 +2315,8 @@
       <c r="D49" s="5">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
-        <v>27</v>
+      <c r="E49" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2335,7 +2332,7 @@
       <c r="D50" s="5">
         <v>9</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2352,8 +2349,8 @@
       <c r="D51" s="5">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
-        <v>28</v>
+      <c r="E51" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2369,8 +2366,8 @@
       <c r="D52" s="5">
         <v>9</v>
       </c>
-      <c r="E52" t="s">
-        <v>29</v>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2386,8 +2383,8 @@
       <c r="D53" s="5">
         <v>9</v>
       </c>
-      <c r="E53" t="s">
-        <v>32</v>
+      <c r="E53" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="5:5">
@@ -2470,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5">
         <v>12</v>
@@ -2479,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:6">
@@ -2490,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <v>40</v>
@@ -2499,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:6">
@@ -2510,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -2519,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:6">
@@ -2530,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
         <v>34</v>
@@ -2539,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:6">
@@ -2550,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -2559,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:6">
@@ -2570,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>28</v>
@@ -2579,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:6">
@@ -2590,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5">
         <v>42</v>
@@ -2599,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:6">
@@ -2610,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
@@ -2619,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:6">
@@ -2630,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -2639,7 +2636,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:6">
@@ -2650,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5">
         <v>9</v>
@@ -2659,7 +2656,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:6">
@@ -2670,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5">
         <v>45</v>
@@ -2679,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:6">
@@ -2690,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5">
         <v>22</v>
@@ -2699,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
@@ -2710,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5">
         <v>35</v>
@@ -2719,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
@@ -2730,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5">
         <v>36</v>
@@ -2739,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:6">
@@ -2750,7 +2747,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5">
         <v>32</v>
@@ -2759,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:6">
@@ -2770,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5">
         <v>30</v>
@@ -2779,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:6">
@@ -2790,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5">
         <v>37</v>
@@ -2799,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:6">
@@ -2810,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5">
         <v>15</v>
@@ -2819,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:6">
@@ -2830,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5">
         <v>23</v>
@@ -2839,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
@@ -2850,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5">
         <v>44</v>
@@ -2859,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
@@ -2870,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5">
         <v>41</v>
@@ -2879,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:6">
@@ -2890,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
@@ -2899,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:6">
@@ -2910,7 +2907,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D25" s="5">
         <v>19</v>
@@ -2919,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:6">
@@ -2930,7 +2927,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D26" s="5">
         <v>46</v>
@@ -2939,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:6">
@@ -2950,7 +2947,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27" s="5">
         <v>33</v>
@@ -2959,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:6">
@@ -2970,7 +2967,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
@@ -2979,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
@@ -2990,7 +2987,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5">
         <v>29</v>
@@ -2999,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:6">
@@ -3010,7 +3007,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5">
         <v>24</v>
@@ -3019,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
@@ -3030,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5">
         <v>47</v>
@@ -3039,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:6">
@@ -3050,7 +3047,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D32" s="5">
         <v>43</v>
@@ -3059,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:6">
@@ -3070,7 +3067,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
@@ -3079,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:6">
@@ -3090,7 +3087,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -3099,7 +3096,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:6">
@@ -3110,7 +3107,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5">
         <v>16</v>
@@ -3119,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:6">
@@ -3130,7 +3127,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5">
         <v>17</v>
@@ -3139,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:6">
@@ -3150,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" s="5">
         <v>21</v>
@@ -3159,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:6">
@@ -3170,7 +3167,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D38" s="5">
         <v>31</v>
@@ -3179,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:6">
@@ -3190,7 +3187,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D39" s="5">
         <v>7</v>
@@ -3199,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:6">
@@ -3210,7 +3207,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D40" s="5">
         <v>6</v>
@@ -3219,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:6">
@@ -3230,7 +3227,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D41" s="5">
         <v>49</v>
@@ -3239,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:6">
@@ -3250,7 +3247,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D42" s="5">
         <v>18</v>
@@ -3259,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:6">
@@ -3270,7 +3267,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D43" s="5">
         <v>27</v>
@@ -3279,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:6">
@@ -3290,7 +3287,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D44" s="5">
         <v>38</v>
@@ -3299,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:6">
@@ -3310,7 +3307,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
@@ -3319,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:6">
@@ -3330,7 +3327,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D46" s="5">
         <v>26</v>
@@ -3339,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:6">
@@ -3350,7 +3347,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D47" s="5">
         <v>48</v>
@@ -3359,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:6">
@@ -3370,7 +3367,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D48" s="5">
         <v>13</v>
@@ -3379,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="1:6">
@@ -3390,7 +3387,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D49" s="5">
         <v>14</v>
@@ -3399,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:6">
@@ -3410,7 +3407,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D50" s="5">
         <v>39</v>
@@ -3419,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="1:6">
@@ -3430,7 +3427,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D51" s="5">
         <v>20</v>
@@ -3439,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="1:6">
@@ -3450,7 +3447,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D52" s="5">
         <v>25</v>
@@ -3459,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:6">
@@ -3470,7 +3467,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D53" s="5">
         <v>51</v>
@@ -3479,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ProvinceLevel.xlsx
+++ b/excel/ProvinceLevel.xlsx
@@ -1029,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1119,6 +1116,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1466,7 +1468,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A1048576"/>
@@ -1774,7 +1776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:5">
+    <row r="18" s="5" customFormat="1" spans="1:8">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1790,6 +1792,7 @@
       <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="H18"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:5">
       <c r="A19" s="5">
@@ -1872,7 +1875,7 @@
       <c r="D23" s="5">
         <v>9</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1889,7 +1892,7 @@
       <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1906,7 +1909,7 @@
       <c r="D25" s="5">
         <v>9</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1923,7 +1926,7 @@
       <c r="D26" s="5">
         <v>9</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1940,7 +1943,7 @@
       <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1957,7 +1960,7 @@
       <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1974,7 +1977,7 @@
       <c r="D29" s="5">
         <v>9</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1991,7 +1994,7 @@
       <c r="D30" s="5">
         <v>9</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2008,7 +2011,7 @@
       <c r="D31" s="5">
         <v>9</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2025,7 +2028,7 @@
       <c r="D32" s="5">
         <v>9</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2042,7 +2045,7 @@
       <c r="D33" s="5">
         <v>9</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2059,7 +2062,7 @@
       <c r="D34" s="5">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2076,7 +2079,7 @@
       <c r="D35" s="5">
         <v>9</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2093,7 +2096,7 @@
       <c r="D36" s="5">
         <v>9</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2110,7 +2113,7 @@
       <c r="D37" s="5">
         <v>9</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2127,7 +2130,7 @@
       <c r="D38" s="5">
         <v>9</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2144,7 +2147,7 @@
       <c r="D39" s="5">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2161,7 +2164,7 @@
       <c r="D40" s="5">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2178,7 +2181,7 @@
       <c r="D41" s="5">
         <v>9</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2195,7 +2198,7 @@
       <c r="D42" s="5">
         <v>9</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="R42" s="2"/>
@@ -2213,7 +2216,7 @@
       <c r="D43" s="5">
         <v>9</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2230,7 +2233,7 @@
       <c r="D44" s="5">
         <v>9</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2247,7 +2250,7 @@
       <c r="D45" s="5">
         <v>9</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2264,7 +2267,7 @@
       <c r="D46" s="5">
         <v>9</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2281,7 +2284,7 @@
       <c r="D47" s="5">
         <v>9</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2298,7 +2301,7 @@
       <c r="D48" s="5">
         <v>9</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2315,7 +2318,7 @@
       <c r="D49" s="5">
         <v>9</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2332,7 +2335,7 @@
       <c r="D50" s="5">
         <v>9</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2349,7 +2352,7 @@
       <c r="D51" s="5">
         <v>9</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2366,7 +2369,7 @@
       <c r="D52" s="5">
         <v>9</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2383,12 +2386,9 @@
       <c r="D53" s="5">
         <v>9</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:R53" etc:filterBottomFollowUsedRange="0">

--- a/excel/ProvinceLevel.xlsx
+++ b/excel/ProvinceLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,40 +129,40 @@
     <t>level</t>
   </si>
   <si>
-    <t>20085,1;20086,1;20063,1;20065,1;1053,1;20066,1</t>
-  </si>
-  <si>
-    <t>1106,1;20069,1;20070,1;2139,2;1060,1;20071,1</t>
-  </si>
-  <si>
-    <t>20050,1;1080,1;1107,1;2033,2;1108,1;3047,1</t>
-  </si>
-  <si>
-    <t>1059,2;1078,1;2055,1;1076,1;3205,1;2142,2;1019,1;2106,1;3019,1</t>
-  </si>
-  <si>
-    <t>1089,1;2007,2;1003,1;3051,1;2029,1;3018,3;20005,2;20036,4;20041,3</t>
-  </si>
-  <si>
-    <t>1001,2;2028,3;3004,4;20075,2;35001,1;35002,1;1108,3;3005,3;5851,4</t>
-  </si>
-  <si>
-    <t>35005,2;2029,4;3202,5;2050,3;3206,4;35008,5;3051,3;20004,4;35042,5</t>
-  </si>
-  <si>
-    <t>20050,4;20058,5;1087,5;20020,3;30001,4;30002,4;20037,3;30010,4;35077,5</t>
-  </si>
-  <si>
-    <t>20039,3;2037,4;30023,5;30028,3;35048,4;2016,6;30027,2;2094,3;30077,5</t>
-  </si>
-  <si>
-    <t>1091,2;2082,4;3020,5;35062,2;2013,4;3040,5;2075,3;35048,4;35080,5</t>
-  </si>
-  <si>
-    <t>20039,2;3008,3;30007,4;30020,2;35028,3;20040,4;30023,2;3014,4;35114,5</t>
-  </si>
-  <si>
-    <t>30006,3;30013,4;5055,6;35006,2;35049,3;1008,4;1104,5;2135,3;3029,5</t>
+    <t>20085,1;35116,1;6001,1;6002,1;1001,1;20066,1</t>
+  </si>
+  <si>
+    <t>35121,1;20069,2;20070,1;35122,2;35125,1;35126,1</t>
+  </si>
+  <si>
+    <t>35129,1;20050,2;35130,1;35133,2;2033,1;3205,3</t>
+  </si>
+  <si>
+    <t>1108,2;2055,1;35134,1;3038,3;20073,1;1019,2;3186,1;2141,2;5540,4</t>
+  </si>
+  <si>
+    <t>1089,1;2007,2;1003,1;3051,3;2029,1;35001,3;35002,2;20053,4;20041,5</t>
+  </si>
+  <si>
+    <t>35005,2;2028,3;3004,4;20075,2;3018,3;20005,4;1108,3;3005,3;5851,6</t>
+  </si>
+  <si>
+    <t>1001,2;2029,4;3202,5;30001,3;30002,4;35008,5;30023,3;20004,4;35042,6</t>
+  </si>
+  <si>
+    <t>20050,4;30028,5;1087,5;20020,3;2050,4;3206,4;20037,3;30010,4;35077,6</t>
+  </si>
+  <si>
+    <t>20039,3;2037,4;30028,5;3051,3;35048,4;2016,6;30027,2;2094,3;30077,6</t>
+  </si>
+  <si>
+    <t>1091,2;2082,4;3020,5;35062,2;2013,4;3040,5;2075,3;35048,4;35080,6</t>
+  </si>
+  <si>
+    <t>20039,2;3008,3;30007,4;30020,2;35028,3;20040,4;30023,2;3014,4;35114,6</t>
+  </si>
+  <si>
+    <t>30006,3;30013,4;5055,6;35006,2;35049,3;1008,4;1104,5;2135,3;3029,6</t>
   </si>
   <si>
     <t>2028,3;3069,4;2124,5;35010,3;30056,4;30028,5;3106,3;2013,5;35089,6</t>
@@ -174,7 +174,7 @@
     <t>20038,3;2020,5;30036,6;30056,3;30083,5;1045,6;3046,3;2034,5;5528,6</t>
   </si>
   <si>
-    <t>1079,4;2023,5;3089,6;3037,3;3263,5;20073,6;3008,3;20040,5;30114,6</t>
+    <t>1079,4;2023,5;3083,6;3037,3;3263,5;20073,6;3008,3;20040,5;30114,6</t>
   </si>
   <si>
     <t>30026,3;2053,5;3069,6;20060,4;30030,5;30044,6;3105,3;2020,5;5783,6</t>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="16.5"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="3" s="5" customFormat="1" spans="1:5">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -1533,13 +1533,13 @@
       <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:5">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5">
         <v>43</v>
@@ -1550,13 +1550,13 @@
       <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:5">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
@@ -1567,13 +1567,13 @@
       <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:5">
       <c r="A6" s="5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>32</v>
@@ -1584,13 +1584,13 @@
       <c r="D6" s="5">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:5">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5">
         <v>26</v>
@@ -1601,13 +1601,13 @@
       <c r="D7" s="5">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:5">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5">
         <v>38</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="9" s="5" customFormat="1" spans="1:5">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>37</v>
@@ -1635,13 +1635,13 @@
       <c r="D9" s="5">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:5">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>31</v>
@@ -1652,13 +1652,13 @@
       <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:5">
       <c r="A11" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
@@ -1669,13 +1669,13 @@
       <c r="D11" s="5">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:5">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>22</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="13" s="5" customFormat="1" spans="1:18">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="14" s="5" customFormat="1" spans="1:5">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="15" s="5" customFormat="1" spans="1:5">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5">
         <v>46</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="16" s="5" customFormat="1" spans="1:5">
       <c r="A16" s="5">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5">
         <v>47</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="17" s="5" customFormat="1" spans="1:5">
       <c r="A17" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5">
         <v>18</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="18" s="5" customFormat="1" spans="1:8">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>33</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:5">
       <c r="A19" s="5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5">
         <v>34</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:5">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5">
         <v>40</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>23</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:5">
       <c r="A22" s="5">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5">
         <v>49</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:5">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5">
         <v>35</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B24" s="5">
         <v>12</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5">
         <v>19</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5">
         <v>28</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5">
         <v>50</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5">
         <v>44</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" s="5">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5">
         <v>41</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" s="5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B30" s="5">
         <v>6</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>27</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" s="5">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B32" s="5">
         <v>16</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" s="5">
         <v>36</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="34" s="5" customFormat="1" spans="1:5">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5">
         <v>15</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="35" s="5" customFormat="1" spans="1:5">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5">
         <v>25</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="36" s="5" customFormat="1" spans="1:5">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B36" s="5">
         <v>4</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B37" s="5">
         <v>13</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5">
         <v>14</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B39" s="5">
         <v>17</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5">
         <v>42</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5">
         <v>48</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="42" ht="17.25" spans="1:18">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B42" s="5">
         <v>2</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B43" s="5">
         <v>21</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B45" s="5">
         <v>30</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B46" s="5">
         <v>20</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B47" s="5">
         <v>11</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B48" s="5">
         <v>24</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5">
         <v>29</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" s="5">
         <v>45</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B51" s="5">
         <v>39</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B52" s="5">
         <v>8</v>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
